--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tnc-Itgb3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tnc-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>116.984403052488</v>
+        <v>1.991283666666667</v>
       </c>
       <c r="H2">
-        <v>116.984403052488</v>
+        <v>5.973851</v>
       </c>
       <c r="I2">
-        <v>0.7063015291459593</v>
+        <v>0.01140843867965475</v>
       </c>
       <c r="J2">
-        <v>0.7063015291459593</v>
+        <v>0.01140843867965475</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.45170379307354</v>
+        <v>2.481489333333333</v>
       </c>
       <c r="N2">
-        <v>1.45170379307354</v>
+        <v>7.444467999999999</v>
       </c>
       <c r="O2">
-        <v>0.156091865888787</v>
+        <v>0.2345069082418988</v>
       </c>
       <c r="P2">
-        <v>0.156091865888787</v>
+        <v>0.2345069082418987</v>
       </c>
       <c r="Q2">
-        <v>169.8267016417406</v>
+        <v>4.941349178474221</v>
       </c>
       <c r="R2">
-        <v>169.8267016417406</v>
+        <v>44.47214260626799</v>
       </c>
       <c r="S2">
-        <v>0.1102479235644963</v>
+        <v>0.002675357682633125</v>
       </c>
       <c r="T2">
-        <v>0.1102479235644963</v>
+        <v>0.002675357682633124</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>116.984403052488</v>
+        <v>1.991283666666667</v>
       </c>
       <c r="H3">
-        <v>116.984403052488</v>
+        <v>5.973851</v>
       </c>
       <c r="I3">
-        <v>0.7063015291459593</v>
+        <v>0.01140843867965475</v>
       </c>
       <c r="J3">
-        <v>0.7063015291459593</v>
+        <v>0.01140843867965475</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.20742042878663</v>
+        <v>7.245227</v>
       </c>
       <c r="N3">
-        <v>7.20742042878663</v>
+        <v>21.735681</v>
       </c>
       <c r="O3">
-        <v>0.7749650502685403</v>
+        <v>0.6846919551326144</v>
       </c>
       <c r="P3">
-        <v>0.7749650502685403</v>
+        <v>0.6846919551326142</v>
       </c>
       <c r="Q3">
-        <v>843.155776409911</v>
+        <v>14.42730218639233</v>
       </c>
       <c r="R3">
-        <v>843.155776409911</v>
+        <v>129.845719677531</v>
       </c>
       <c r="S3">
-        <v>0.5473590000393453</v>
+        <v>0.007811266184583352</v>
       </c>
       <c r="T3">
-        <v>0.5473590000393453</v>
+        <v>0.007811266184583348</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>116.984403052488</v>
+        <v>1.991283666666667</v>
       </c>
       <c r="H4">
-        <v>116.984403052488</v>
+        <v>5.973851</v>
       </c>
       <c r="I4">
-        <v>0.7063015291459593</v>
+        <v>0.01140843867965475</v>
       </c>
       <c r="J4">
-        <v>0.7063015291459593</v>
+        <v>0.01140843867965475</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.641192516667742</v>
+        <v>0.2001876666666667</v>
       </c>
       <c r="N4">
-        <v>0.641192516667742</v>
+        <v>0.600563</v>
       </c>
       <c r="O4">
-        <v>0.0689430838426727</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="P4">
-        <v>0.0689430838426727</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="Q4">
-        <v>75.00952380409827</v>
+        <v>0.3986304309014444</v>
       </c>
       <c r="R4">
-        <v>75.00952380409827</v>
+        <v>3.587673878113</v>
       </c>
       <c r="S4">
-        <v>0.04869460554211781</v>
+        <v>0.0002158274890771507</v>
       </c>
       <c r="T4">
-        <v>0.04869460554211781</v>
+        <v>0.0002158274890771506</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>48.6451449876279</v>
+        <v>1.991283666666667</v>
       </c>
       <c r="H5">
-        <v>48.6451449876279</v>
+        <v>5.973851</v>
       </c>
       <c r="I5">
-        <v>0.2936984708540406</v>
+        <v>0.01140843867965475</v>
       </c>
       <c r="J5">
-        <v>0.2936984708540406</v>
+        <v>0.01140843867965475</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.45170379307354</v>
+        <v>0.6548283333333333</v>
       </c>
       <c r="N5">
-        <v>1.45170379307354</v>
+        <v>1.964485</v>
       </c>
       <c r="O5">
-        <v>0.156091865888787</v>
+        <v>0.06188290468003712</v>
       </c>
       <c r="P5">
-        <v>0.156091865888787</v>
+        <v>0.06188290468003711</v>
       </c>
       <c r="Q5">
-        <v>70.61834149315172</v>
+        <v>1.303948964637222</v>
       </c>
       <c r="R5">
-        <v>70.61834149315172</v>
+        <v>11.735540681735</v>
       </c>
       <c r="S5">
-        <v>0.04584394232429074</v>
+        <v>0.0007059873233611234</v>
       </c>
       <c r="T5">
-        <v>0.04584394232429074</v>
+        <v>0.0007059873233611231</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.6451449876279</v>
+        <v>123.027733</v>
       </c>
       <c r="H6">
-        <v>48.6451449876279</v>
+        <v>369.083199</v>
       </c>
       <c r="I6">
-        <v>0.2936984708540406</v>
+        <v>0.7048490234326753</v>
       </c>
       <c r="J6">
-        <v>0.2936984708540406</v>
+        <v>0.7048490234326753</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.20742042878663</v>
+        <v>2.481489333333333</v>
       </c>
       <c r="N6">
-        <v>7.20742042878663</v>
+        <v>7.444467999999999</v>
       </c>
       <c r="O6">
-        <v>0.7749650502685403</v>
+        <v>0.2345069082418988</v>
       </c>
       <c r="P6">
-        <v>0.7749650502685403</v>
+        <v>0.2345069082418987</v>
       </c>
       <c r="Q6">
-        <v>350.6060117451169</v>
+        <v>305.2920071436812</v>
       </c>
       <c r="R6">
-        <v>350.6060117451169</v>
+        <v>2747.628064293132</v>
       </c>
       <c r="S6">
-        <v>0.227606050229195</v>
+        <v>0.1652919652625184</v>
       </c>
       <c r="T6">
-        <v>0.227606050229195</v>
+        <v>0.1652919652625183</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,681 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>48.6451449876279</v>
+        <v>123.027733</v>
       </c>
       <c r="H7">
-        <v>48.6451449876279</v>
+        <v>369.083199</v>
       </c>
       <c r="I7">
-        <v>0.2936984708540406</v>
+        <v>0.7048490234326753</v>
       </c>
       <c r="J7">
-        <v>0.2936984708540406</v>
+        <v>0.7048490234326753</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.641192516667742</v>
+        <v>7.245227</v>
       </c>
       <c r="N7">
-        <v>0.641192516667742</v>
+        <v>21.735681</v>
       </c>
       <c r="O7">
-        <v>0.0689430838426727</v>
+        <v>0.6846919551326144</v>
       </c>
       <c r="P7">
-        <v>0.0689430838426727</v>
+        <v>0.6846919551326142</v>
       </c>
       <c r="Q7">
-        <v>31.19090293828433</v>
+        <v>891.3638528803909</v>
       </c>
       <c r="R7">
-        <v>31.19090293828433</v>
+        <v>8022.274675923519</v>
       </c>
       <c r="S7">
-        <v>0.02024847830055488</v>
+        <v>0.4826044559274324</v>
       </c>
       <c r="T7">
-        <v>0.02024847830055488</v>
+        <v>0.4826044559274322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>123.027733</v>
+      </c>
+      <c r="H8">
+        <v>369.083199</v>
+      </c>
+      <c r="I8">
+        <v>0.7048490234326753</v>
+      </c>
+      <c r="J8">
+        <v>0.7048490234326753</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.2001876666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.600563</v>
+      </c>
+      <c r="O8">
+        <v>0.01891823194544989</v>
+      </c>
+      <c r="P8">
+        <v>0.01891823194544989</v>
+      </c>
+      <c r="Q8">
+        <v>24.62863480455966</v>
+      </c>
+      <c r="R8">
+        <v>221.657713241037</v>
+      </c>
+      <c r="S8">
+        <v>0.0133344973118232</v>
+      </c>
+      <c r="T8">
+        <v>0.01333449731182319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>123.027733</v>
+      </c>
+      <c r="H9">
+        <v>369.083199</v>
+      </c>
+      <c r="I9">
+        <v>0.7048490234326753</v>
+      </c>
+      <c r="J9">
+        <v>0.7048490234326753</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.6548283333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.964485</v>
+      </c>
+      <c r="O9">
+        <v>0.06188290468003712</v>
+      </c>
+      <c r="P9">
+        <v>0.06188290468003711</v>
+      </c>
+      <c r="Q9">
+        <v>80.56204535416833</v>
+      </c>
+      <c r="R9">
+        <v>725.0584081875149</v>
+      </c>
+      <c r="S9">
+        <v>0.04361810493090149</v>
+      </c>
+      <c r="T9">
+        <v>0.04361810493090149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.037411</v>
+      </c>
+      <c r="H10">
+        <v>0.112233</v>
+      </c>
+      <c r="I10">
+        <v>0.0002143346558750279</v>
+      </c>
+      <c r="J10">
+        <v>0.0002143346558750279</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.481489333333333</v>
+      </c>
+      <c r="N10">
+        <v>7.444467999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.2345069082418988</v>
+      </c>
+      <c r="P10">
+        <v>0.2345069082418987</v>
+      </c>
+      <c r="Q10">
+        <v>0.09283499744933331</v>
+      </c>
+      <c r="R10">
+        <v>0.8355149770439999</v>
+      </c>
+      <c r="S10">
+        <v>5.026295747834412E-05</v>
+      </c>
+      <c r="T10">
+        <v>5.026295747834411E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.037411</v>
+      </c>
+      <c r="H11">
+        <v>0.112233</v>
+      </c>
+      <c r="I11">
+        <v>0.0002143346558750279</v>
+      </c>
+      <c r="J11">
+        <v>0.0002143346558750279</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7.245227</v>
+      </c>
+      <c r="N11">
+        <v>21.735681</v>
+      </c>
+      <c r="O11">
+        <v>0.6846919551326144</v>
+      </c>
+      <c r="P11">
+        <v>0.6846919551326142</v>
+      </c>
+      <c r="Q11">
+        <v>0.271051187297</v>
+      </c>
+      <c r="R11">
+        <v>2.439460685673</v>
+      </c>
+      <c r="S11">
+        <v>0.000146753214583749</v>
+      </c>
+      <c r="T11">
+        <v>0.0001467532145837489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.037411</v>
+      </c>
+      <c r="H12">
+        <v>0.112233</v>
+      </c>
+      <c r="I12">
+        <v>0.0002143346558750279</v>
+      </c>
+      <c r="J12">
+        <v>0.0002143346558750279</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.2001876666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.600563</v>
+      </c>
+      <c r="O12">
+        <v>0.01891823194544989</v>
+      </c>
+      <c r="P12">
+        <v>0.01891823194544989</v>
+      </c>
+      <c r="Q12">
+        <v>0.007489220797666666</v>
+      </c>
+      <c r="R12">
+        <v>0.06740298717899999</v>
+      </c>
+      <c r="S12">
+        <v>4.054832733791963E-06</v>
+      </c>
+      <c r="T12">
+        <v>4.054832733791962E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.037411</v>
+      </c>
+      <c r="H13">
+        <v>0.112233</v>
+      </c>
+      <c r="I13">
+        <v>0.0002143346558750279</v>
+      </c>
+      <c r="J13">
+        <v>0.0002143346558750279</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6548283333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.964485</v>
+      </c>
+      <c r="O13">
+        <v>0.06188290468003712</v>
+      </c>
+      <c r="P13">
+        <v>0.06188290468003711</v>
+      </c>
+      <c r="Q13">
+        <v>0.02449778277833333</v>
+      </c>
+      <c r="R13">
+        <v>0.220480045005</v>
+      </c>
+      <c r="S13">
+        <v>1.326365107914291E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.326365107914291E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>49.488374</v>
+      </c>
+      <c r="H14">
+        <v>148.465122</v>
+      </c>
+      <c r="I14">
+        <v>0.2835282032317949</v>
+      </c>
+      <c r="J14">
+        <v>0.2835282032317949</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.481489333333333</v>
+      </c>
+      <c r="N14">
+        <v>7.444467999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.2345069082418988</v>
+      </c>
+      <c r="P14">
+        <v>0.2345069082418987</v>
+      </c>
+      <c r="Q14">
+        <v>122.8048722050106</v>
+      </c>
+      <c r="R14">
+        <v>1105.243849845096</v>
+      </c>
+      <c r="S14">
+        <v>0.06648932233926895</v>
+      </c>
+      <c r="T14">
+        <v>0.06648932233926894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>49.488374</v>
+      </c>
+      <c r="H15">
+        <v>148.465122</v>
+      </c>
+      <c r="I15">
+        <v>0.2835282032317949</v>
+      </c>
+      <c r="J15">
+        <v>0.2835282032317949</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.245227</v>
+      </c>
+      <c r="N15">
+        <v>21.735681</v>
+      </c>
+      <c r="O15">
+        <v>0.6846919551326144</v>
+      </c>
+      <c r="P15">
+        <v>0.6846919551326142</v>
+      </c>
+      <c r="Q15">
+        <v>358.554503490898</v>
+      </c>
+      <c r="R15">
+        <v>3226.990531418082</v>
+      </c>
+      <c r="S15">
+        <v>0.1941294798060149</v>
+      </c>
+      <c r="T15">
+        <v>0.1941294798060148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>49.488374</v>
+      </c>
+      <c r="H16">
+        <v>148.465122</v>
+      </c>
+      <c r="I16">
+        <v>0.2835282032317949</v>
+      </c>
+      <c r="J16">
+        <v>0.2835282032317949</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2001876666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.600563</v>
+      </c>
+      <c r="O16">
+        <v>0.01891823194544989</v>
+      </c>
+      <c r="P16">
+        <v>0.01891823194544989</v>
+      </c>
+      <c r="Q16">
+        <v>9.906962118187332</v>
+      </c>
+      <c r="R16">
+        <v>89.16265906368599</v>
+      </c>
+      <c r="S16">
+        <v>0.005363852311815752</v>
+      </c>
+      <c r="T16">
+        <v>0.005363852311815751</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>49.488374</v>
+      </c>
+      <c r="H17">
+        <v>148.465122</v>
+      </c>
+      <c r="I17">
+        <v>0.2835282032317949</v>
+      </c>
+      <c r="J17">
+        <v>0.2835282032317949</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6548283333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.964485</v>
+      </c>
+      <c r="O17">
+        <v>0.06188290468003712</v>
+      </c>
+      <c r="P17">
+        <v>0.06188290468003711</v>
+      </c>
+      <c r="Q17">
+        <v>32.40638946579666</v>
+      </c>
+      <c r="R17">
+        <v>291.65750519217</v>
+      </c>
+      <c r="S17">
+        <v>0.01754554877469536</v>
+      </c>
+      <c r="T17">
+        <v>0.01754554877469535</v>
       </c>
     </row>
   </sheetData>
